--- a/IdoRele.xlsx
+++ b/IdoRele.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DriveFM\FlowFactory\Projekt\IdoRele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DriveFM\FlowFactory\Projekt\Luminis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD26CA7-1149-4051-AAE5-710297FD04B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39AB9EC4-AA64-4833-85CE-E666E32BD906}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Sorkapocs</t>
   </si>
@@ -44,9 +43,6 @@
     <t>GND</t>
   </si>
   <si>
-    <t>D13</t>
-  </si>
-  <si>
     <t>Bemenet 1 , ajtó</t>
   </si>
   <si>
@@ -113,16 +109,46 @@
     <t>Ardu GND-je (0VDC) a vezérllőjével közösíteni kell</t>
   </si>
   <si>
-    <t>Kontakkok egyik pontja a negatívra kötve, másik pontja az ardu bemenetére</t>
-  </si>
-  <si>
     <t xml:space="preserve">Táp 7-9VDC </t>
+  </si>
+  <si>
+    <t>Input pullup, GND-re érzékel</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Kék</t>
+  </si>
+  <si>
+    <t>Fényszenzor:</t>
+  </si>
+  <si>
+    <t>Kontakok (mozgás és ajtó nyitás) egyik pontja a negatívra kötve, másik pontja az ardu bemenetére</t>
+  </si>
+  <si>
+    <t>Fény szenzor (kép): Fekete: 0V, piros: 5V, Kék: Jel, analóg bemenez</t>
+  </si>
+  <si>
+    <t>Szenzor analóg jel</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>5VDC</t>
+  </si>
+  <si>
+    <t>Szenzor táp +</t>
+  </si>
+  <si>
+    <t>Szenzor táp -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,6 +196,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157142</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509371</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9582150" y="762000"/>
+          <a:ext cx="1885714" cy="1571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A20AB-1960-42A4-8B5B-2DE1E0D8EA5A}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:M33"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,23 +551,23 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,94 +575,152 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>